--- a/pred_ohlcv/54/2019-11-14 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-14 PPT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:I222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,25 +413,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C2" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D2" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E2" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F2" t="n">
-        <v>1500</v>
+        <v>337.2457</v>
       </c>
       <c r="G2" t="n">
-        <v>623.9833333333333</v>
+        <v>623.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +442,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C3" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D3" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E3" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F3" t="n">
-        <v>350.3488</v>
+        <v>1500</v>
       </c>
       <c r="G3" t="n">
-        <v>624.3833333333333</v>
+        <v>623.9833333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -460,25 +471,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C4" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D4" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E4" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F4" t="n">
-        <v>6905.2844</v>
+        <v>350.3488</v>
       </c>
       <c r="G4" t="n">
-        <v>624.7166666666667</v>
+        <v>624.3833333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -486,25 +500,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C5" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D5" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E5" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F5" t="n">
-        <v>1813.2403</v>
+        <v>6905.2844</v>
       </c>
       <c r="G5" t="n">
-        <v>625.0666666666667</v>
+        <v>624.7166666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -512,25 +529,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C6" t="n">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D6" t="n">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E6" t="n">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>1813.2403</v>
       </c>
       <c r="G6" t="n">
-        <v>625.4666666666667</v>
+        <v>625.0666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -538,25 +558,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C7" t="n">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D7" t="n">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="E7" t="n">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F7" t="n">
-        <v>4359.3726</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>625.8166666666667</v>
+        <v>625.4666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -564,25 +587,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C8" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D8" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E8" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F8" t="n">
-        <v>71.5508</v>
+        <v>4359.3726</v>
       </c>
       <c r="G8" t="n">
-        <v>626.1666666666666</v>
+        <v>625.8166666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -590,25 +616,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C9" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D9" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E9" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F9" t="n">
-        <v>474.7371</v>
+        <v>71.5508</v>
       </c>
       <c r="G9" t="n">
-        <v>626.5166666666667</v>
+        <v>626.1666666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -628,13 +657,16 @@
         <v>634</v>
       </c>
       <c r="F10" t="n">
-        <v>385.5</v>
+        <v>474.7371</v>
       </c>
       <c r="G10" t="n">
-        <v>626.8666666666667</v>
+        <v>626.5166666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -642,25 +674,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C11" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D11" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E11" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F11" t="n">
-        <v>390.5602</v>
+        <v>385.5</v>
       </c>
       <c r="G11" t="n">
-        <v>627.1833333333333</v>
+        <v>626.8666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -668,25 +703,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="C12" t="n">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="D12" t="n">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E12" t="n">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="F12" t="n">
-        <v>581.5</v>
+        <v>390.5602</v>
       </c>
       <c r="G12" t="n">
-        <v>627.2833333333333</v>
+        <v>627.1833333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -694,25 +732,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C13" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D13" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E13" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F13" t="n">
-        <v>2087.8234</v>
+        <v>581.5</v>
       </c>
       <c r="G13" t="n">
-        <v>627.4166666666666</v>
+        <v>627.2833333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -720,25 +761,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C14" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D14" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E14" t="n">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F14" t="n">
-        <v>88.50449999999999</v>
+        <v>2087.8234</v>
       </c>
       <c r="G14" t="n">
-        <v>627.55</v>
+        <v>627.4166666666666</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -746,25 +790,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C15" t="n">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D15" t="n">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E15" t="n">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="F15" t="n">
-        <v>378.9099</v>
+        <v>88.50449999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>627.8833333333333</v>
+        <v>627.55</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -781,16 +828,19 @@
         <v>633</v>
       </c>
       <c r="E16" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F16" t="n">
-        <v>4274.3867</v>
+        <v>378.9099</v>
       </c>
       <c r="G16" t="n">
-        <v>628.2166666666667</v>
+        <v>627.8833333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C17" t="n">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D17" t="n">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E17" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F17" t="n">
-        <v>47.9385</v>
+        <v>4274.3867</v>
       </c>
       <c r="G17" t="n">
-        <v>628.5</v>
+        <v>628.2166666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C18" t="n">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D18" t="n">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E18" t="n">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F18" t="n">
-        <v>3207.9267</v>
+        <v>47.9385</v>
       </c>
       <c r="G18" t="n">
-        <v>628.8666666666667</v>
+        <v>628.5</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,7 +906,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C19" t="n">
         <v>635</v>
@@ -859,15 +915,18 @@
         <v>635</v>
       </c>
       <c r="E19" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F19" t="n">
-        <v>78.12130000000001</v>
+        <v>3207.9267</v>
       </c>
       <c r="G19" t="n">
-        <v>629.2166666666667</v>
+        <v>628.8666666666667</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C20" t="n">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D20" t="n">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E20" t="n">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F20" t="n">
-        <v>2779.6124</v>
+        <v>78.12130000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>629.65</v>
+        <v>629.2166666666667</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C21" t="n">
         <v>640</v>
@@ -911,15 +973,18 @@
         <v>640</v>
       </c>
       <c r="E21" t="n">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F21" t="n">
-        <v>1663.9968</v>
+        <v>2779.6124</v>
       </c>
       <c r="G21" t="n">
-        <v>630.0666666666667</v>
+        <v>629.65</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>640</v>
       </c>
       <c r="F22" t="n">
-        <v>39.3738</v>
+        <v>1663.9968</v>
       </c>
       <c r="G22" t="n">
-        <v>630.4166666666666</v>
+        <v>630.0666666666667</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>640</v>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>39.3738</v>
       </c>
       <c r="G23" t="n">
-        <v>630.6666666666666</v>
+        <v>630.4166666666666</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C24" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D24" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E24" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F24" t="n">
-        <v>131.6238</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>630.85</v>
+        <v>630.6666666666666</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1080,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C25" t="n">
         <v>636</v>
@@ -1015,15 +1089,18 @@
         <v>636</v>
       </c>
       <c r="E25" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="F25" t="n">
-        <v>1400.9968</v>
+        <v>131.6238</v>
       </c>
       <c r="G25" t="n">
-        <v>631.0333333333333</v>
+        <v>630.85</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C26" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D26" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E26" t="n">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F26" t="n">
-        <v>88</v>
+        <v>1400.9968</v>
       </c>
       <c r="G26" t="n">
-        <v>631.1833333333333</v>
+        <v>631.0333333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C27" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D27" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E27" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F27" t="n">
-        <v>84.74509999999999</v>
+        <v>88</v>
       </c>
       <c r="G27" t="n">
-        <v>631.35</v>
+        <v>631.1833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="C28" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D28" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E28" t="n">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="F28" t="n">
-        <v>908.0526</v>
+        <v>84.74509999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>631.5166666666667</v>
+        <v>631.35</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C29" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D29" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E29" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F29" t="n">
-        <v>305</v>
+        <v>908.0526</v>
       </c>
       <c r="G29" t="n">
-        <v>631.7333333333333</v>
+        <v>631.5166666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>633</v>
       </c>
       <c r="C30" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D30" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E30" t="n">
         <v>633</v>
       </c>
       <c r="F30" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G30" t="n">
-        <v>631.9</v>
+        <v>631.7333333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,7 +1254,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C31" t="n">
         <v>634</v>
@@ -1171,15 +1263,18 @@
         <v>634</v>
       </c>
       <c r="E31" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F31" t="n">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="G31" t="n">
-        <v>632.0666666666667</v>
+        <v>631.9</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,7 +1283,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C32" t="n">
         <v>634</v>
@@ -1197,15 +1292,18 @@
         <v>634</v>
       </c>
       <c r="E32" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F32" t="n">
-        <v>513</v>
+        <v>212</v>
       </c>
       <c r="G32" t="n">
-        <v>632.2333333333333</v>
+        <v>632.0666666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C33" t="n">
         <v>634</v>
@@ -1223,15 +1321,18 @@
         <v>634</v>
       </c>
       <c r="E33" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5674</v>
+        <v>513</v>
       </c>
       <c r="G33" t="n">
-        <v>632.4</v>
+        <v>632.2333333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>634</v>
       </c>
       <c r="F34" t="n">
-        <v>401</v>
+        <v>0.5674</v>
       </c>
       <c r="G34" t="n">
-        <v>632.5666666666667</v>
+        <v>632.4</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>634</v>
       </c>
       <c r="F35" t="n">
-        <v>146</v>
+        <v>401</v>
       </c>
       <c r="G35" t="n">
-        <v>632.7333333333333</v>
+        <v>632.5666666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>634</v>
       </c>
       <c r="F36" t="n">
-        <v>1801.898</v>
+        <v>146</v>
       </c>
       <c r="G36" t="n">
-        <v>632.9333333333333</v>
+        <v>632.7333333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1321,21 +1431,24 @@
         <v>634</v>
       </c>
       <c r="C37" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D37" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E37" t="n">
         <v>634</v>
       </c>
       <c r="F37" t="n">
-        <v>150</v>
+        <v>1801.898</v>
       </c>
       <c r="G37" t="n">
-        <v>633.1666666666666</v>
+        <v>632.9333333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C38" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D38" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E38" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F38" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G38" t="n">
-        <v>633.4</v>
+        <v>633.1666666666666</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C39" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D39" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E39" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F39" t="n">
-        <v>268</v>
+        <v>50</v>
       </c>
       <c r="G39" t="n">
-        <v>633.6</v>
+        <v>633.4</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C40" t="n">
         <v>636</v>
@@ -1405,15 +1524,18 @@
         <v>636</v>
       </c>
       <c r="E40" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F40" t="n">
-        <v>397</v>
+        <v>268</v>
       </c>
       <c r="G40" t="n">
-        <v>633.8</v>
+        <v>633.6</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C41" t="n">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="D41" t="n">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="E41" t="n">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>397</v>
       </c>
       <c r="G41" t="n">
-        <v>633.8333333333334</v>
+        <v>633.8</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>628</v>
       </c>
       <c r="C42" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D42" t="n">
         <v>628</v>
       </c>
       <c r="E42" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F42" t="n">
-        <v>6348.6422</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>633.85</v>
+        <v>633.8333333333334</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C43" t="n">
         <v>627</v>
       </c>
       <c r="D43" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E43" t="n">
         <v>627</v>
       </c>
       <c r="F43" t="n">
-        <v>1352</v>
+        <v>6348.6422</v>
       </c>
       <c r="G43" t="n">
-        <v>633.8666666666667</v>
+        <v>633.85</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>627</v>
       </c>
       <c r="F44" t="n">
-        <v>1240.2009</v>
+        <v>1352</v>
       </c>
       <c r="G44" t="n">
-        <v>633.8166666666667</v>
+        <v>633.8666666666667</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>627</v>
       </c>
       <c r="F45" t="n">
-        <v>225</v>
+        <v>1240.2009</v>
       </c>
       <c r="G45" t="n">
-        <v>633.7666666666667</v>
+        <v>633.8166666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C46" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D46" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E46" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="G46" t="n">
-        <v>633.6833333333333</v>
+        <v>633.7666666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>626</v>
       </c>
       <c r="F47" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="G47" t="n">
-        <v>633.5666666666667</v>
+        <v>633.6833333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>626</v>
       </c>
       <c r="F48" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
-        <v>633.45</v>
+        <v>633.5666666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C49" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D49" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E49" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F49" t="n">
-        <v>615.9008</v>
+        <v>83</v>
       </c>
       <c r="G49" t="n">
-        <v>633.3333333333334</v>
+        <v>633.45</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>625</v>
+      </c>
+      <c r="C50" t="n">
         <v>627</v>
       </c>
-      <c r="C50" t="n">
-        <v>630</v>
-      </c>
       <c r="D50" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E50" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F50" t="n">
-        <v>150</v>
+        <v>615.9008</v>
       </c>
       <c r="G50" t="n">
-        <v>633.2666666666667</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C51" t="n">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D51" t="n">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E51" t="n">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G51" t="n">
-        <v>633.2333333333333</v>
+        <v>633.2666666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C52" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D52" t="n">
         <v>636</v>
       </c>
       <c r="E52" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="F52" t="n">
-        <v>214</v>
+        <v>50</v>
       </c>
       <c r="G52" t="n">
-        <v>633.1833333333333</v>
+        <v>633.2333333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C53" t="n">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D53" t="n">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E53" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F53" t="n">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="G53" t="n">
-        <v>633.05</v>
+        <v>633.1833333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C54" t="n">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D54" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E54" t="n">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F54" t="n">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="G54" t="n">
-        <v>632.95</v>
+        <v>633.05</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C55" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="D55" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E55" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="F55" t="n">
-        <v>275</v>
+        <v>127</v>
       </c>
       <c r="G55" t="n">
-        <v>632.7</v>
+        <v>632.95</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1818,18 +1985,21 @@
         <v>630</v>
       </c>
       <c r="D56" t="n">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E56" t="n">
         <v>630</v>
       </c>
       <c r="F56" t="n">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="G56" t="n">
-        <v>632.4</v>
+        <v>632.7</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,21 +2011,24 @@
         <v>630</v>
       </c>
       <c r="C57" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D57" t="n">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E57" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F57" t="n">
-        <v>775</v>
+        <v>50</v>
       </c>
       <c r="G57" t="n">
-        <v>632.2333333333333</v>
+        <v>632.4</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>630</v>
       </c>
       <c r="C58" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D58" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="E58" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F58" t="n">
-        <v>125</v>
+        <v>775</v>
       </c>
       <c r="G58" t="n">
-        <v>632.2</v>
+        <v>632.2333333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C59" t="n">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D59" t="n">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E59" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="G59" t="n">
-        <v>632.2333333333333</v>
+        <v>632.2</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1919,21 +2098,24 @@
         <v>632</v>
       </c>
       <c r="C60" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D60" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E60" t="n">
         <v>632</v>
       </c>
       <c r="F60" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="G60" t="n">
-        <v>632.25</v>
+        <v>632.2333333333333</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C61" t="n">
         <v>632</v>
       </c>
       <c r="D61" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E61" t="n">
         <v>632</v>
       </c>
       <c r="F61" t="n">
-        <v>1425</v>
+        <v>36</v>
       </c>
       <c r="G61" t="n">
-        <v>632.2166666666667</v>
+        <v>632.25</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>633</v>
+      </c>
+      <c r="C62" t="n">
         <v>632</v>
       </c>
-      <c r="C62" t="n">
-        <v>634</v>
-      </c>
       <c r="D62" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E62" t="n">
         <v>632</v>
       </c>
       <c r="F62" t="n">
-        <v>950</v>
+        <v>1425</v>
       </c>
       <c r="G62" t="n">
-        <v>632.2333333333333</v>
+        <v>632.2166666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,7 +2182,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C63" t="n">
         <v>634</v>
@@ -2003,15 +2191,18 @@
         <v>634</v>
       </c>
       <c r="E63" t="n">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F63" t="n">
-        <v>1458.664</v>
+        <v>950</v>
       </c>
       <c r="G63" t="n">
         <v>632.2333333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C64" t="n">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="D64" t="n">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E64" t="n">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>1458.664</v>
       </c>
       <c r="G64" t="n">
-        <v>632.2</v>
+        <v>632.2333333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C65" t="n">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="D65" t="n">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="E65" t="n">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>632.2666666666667</v>
+        <v>632.2</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C66" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D66" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E66" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F66" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>632.25</v>
+        <v>632.2666666666667</v>
       </c>
       <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C67" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D67" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E67" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="G67" t="n">
-        <v>632.3166666666667</v>
+        <v>632.25</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C68" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D68" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E68" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F68" t="n">
-        <v>86.89239999999999</v>
+        <v>250</v>
       </c>
       <c r="G68" t="n">
-        <v>632.3333333333334</v>
+        <v>632.3166666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>634</v>
       </c>
       <c r="F69" t="n">
-        <v>99.75920000000001</v>
+        <v>86.89239999999999</v>
       </c>
       <c r="G69" t="n">
         <v>632.3333333333334</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C70" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D70" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E70" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F70" t="n">
-        <v>300</v>
+        <v>99.75920000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>632.35</v>
+        <v>632.3333333333334</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>635</v>
       </c>
       <c r="F71" t="n">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="G71" t="n">
-        <v>632.4</v>
+        <v>632.35</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,7 +2443,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C72" t="n">
         <v>635</v>
@@ -2237,15 +2452,18 @@
         <v>635</v>
       </c>
       <c r="E72" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F72" t="n">
-        <v>1258</v>
+        <v>125</v>
       </c>
       <c r="G72" t="n">
-        <v>632.65</v>
+        <v>632.4</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,7 +2472,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C73" t="n">
         <v>635</v>
@@ -2263,15 +2481,18 @@
         <v>635</v>
       </c>
       <c r="E73" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F73" t="n">
-        <v>617</v>
+        <v>1258</v>
       </c>
       <c r="G73" t="n">
-        <v>632.8833333333333</v>
+        <v>632.65</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>635</v>
       </c>
       <c r="F74" t="n">
-        <v>50</v>
+        <v>617</v>
       </c>
       <c r="G74" t="n">
-        <v>633.1</v>
+        <v>632.8833333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>635</v>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G75" t="n">
-        <v>633.1333333333333</v>
+        <v>633.1</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>635</v>
       </c>
       <c r="F76" t="n">
-        <v>321</v>
+        <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>633.1666666666666</v>
+        <v>633.1333333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>635</v>
       </c>
       <c r="F77" t="n">
-        <v>457</v>
+        <v>321</v>
       </c>
       <c r="G77" t="n">
-        <v>633.25</v>
+        <v>633.1666666666666</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>635</v>
       </c>
       <c r="F78" t="n">
-        <v>1163</v>
+        <v>457</v>
       </c>
       <c r="G78" t="n">
         <v>633.25</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>635</v>
       </c>
       <c r="F79" t="n">
-        <v>868</v>
+        <v>1163</v>
       </c>
       <c r="G79" t="n">
         <v>633.25</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>635</v>
       </c>
       <c r="F80" t="n">
-        <v>375</v>
+        <v>868</v>
       </c>
       <c r="G80" t="n">
-        <v>633.1666666666666</v>
+        <v>633.25</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,10 +2707,10 @@
         <v>635</v>
       </c>
       <c r="C81" t="n">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D81" t="n">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E81" t="n">
         <v>635</v>
@@ -2477,9 +2719,12 @@
         <v>375</v>
       </c>
       <c r="G81" t="n">
-        <v>633.1166666666667</v>
+        <v>633.1666666666666</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C82" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D82" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E82" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="G82" t="n">
-        <v>633.05</v>
+        <v>633.1166666666667</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C83" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D83" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E83" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G83" t="n">
-        <v>632.9666666666667</v>
+        <v>633.05</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>635</v>
       </c>
       <c r="F84" t="n">
-        <v>875</v>
+        <v>50</v>
       </c>
       <c r="G84" t="n">
-        <v>632.95</v>
+        <v>632.9666666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>635</v>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>875</v>
       </c>
       <c r="G85" t="n">
-        <v>632.9333333333333</v>
+        <v>632.95</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2595,21 +2852,24 @@
         <v>635</v>
       </c>
       <c r="C86" t="n">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D86" t="n">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E86" t="n">
         <v>635</v>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G86" t="n">
-        <v>632.9833333333333</v>
+        <v>632.9333333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C87" t="n">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="D87" t="n">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="E87" t="n">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="F87" t="n">
-        <v>651</v>
+        <v>250</v>
       </c>
       <c r="G87" t="n">
-        <v>632.8333333333334</v>
+        <v>632.9833333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C88" t="n">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="D88" t="n">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="E88" t="n">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F88" t="n">
-        <v>152</v>
+        <v>651</v>
       </c>
       <c r="G88" t="n">
-        <v>632.85</v>
+        <v>632.8333333333334</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2936,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C89" t="n">
         <v>636</v>
@@ -2679,15 +2945,18 @@
         <v>636</v>
       </c>
       <c r="E89" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F89" t="n">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="G89" t="n">
-        <v>632.9</v>
+        <v>632.85</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C90" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D90" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E90" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F90" t="n">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="G90" t="n">
-        <v>632.9166666666666</v>
+        <v>632.9</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C91" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D91" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E91" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="G91" t="n">
-        <v>632.95</v>
+        <v>632.9166666666666</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>636</v>
       </c>
       <c r="F92" t="n">
-        <v>477.4614</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>632.9833333333333</v>
+        <v>632.95</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C93" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D93" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E93" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F93" t="n">
-        <v>31</v>
+        <v>477.4614</v>
       </c>
       <c r="G93" t="n">
         <v>632.9833333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>634</v>
       </c>
       <c r="F94" t="n">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="G94" t="n">
         <v>632.9833333333333</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2829,21 +3113,24 @@
         <v>634</v>
       </c>
       <c r="C95" t="n">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D95" t="n">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E95" t="n">
         <v>634</v>
       </c>
       <c r="F95" t="n">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="G95" t="n">
-        <v>633.0333333333333</v>
+        <v>632.9833333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C96" t="n">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="D96" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E96" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F96" t="n">
-        <v>339.0229</v>
+        <v>283</v>
       </c>
       <c r="G96" t="n">
-        <v>633</v>
+        <v>633.0333333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>633</v>
+      </c>
+      <c r="C97" t="n">
         <v>632</v>
       </c>
-      <c r="C97" t="n">
-        <v>636</v>
-      </c>
       <c r="D97" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E97" t="n">
         <v>632</v>
       </c>
       <c r="F97" t="n">
-        <v>1351.1131</v>
+        <v>339.0229</v>
       </c>
       <c r="G97" t="n">
         <v>633</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +3197,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C98" t="n">
         <v>636</v>
@@ -2913,15 +3206,18 @@
         <v>636</v>
       </c>
       <c r="E98" t="n">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F98" t="n">
-        <v>50</v>
+        <v>1351.1131</v>
       </c>
       <c r="G98" t="n">
-        <v>633.0166666666667</v>
+        <v>633</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C99" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D99" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E99" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F99" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="G99" t="n">
-        <v>633</v>
+        <v>633.0166666666667</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,21 +3258,24 @@
         <v>635</v>
       </c>
       <c r="C100" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D100" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E100" t="n">
         <v>635</v>
       </c>
       <c r="F100" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="G100" t="n">
         <v>633</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C101" t="n">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="D101" t="n">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="E101" t="n">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F101" t="n">
-        <v>522.9729</v>
+        <v>125</v>
       </c>
       <c r="G101" t="n">
-        <v>633.05</v>
+        <v>633</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C102" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D102" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E102" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F102" t="n">
-        <v>639.7996000000001</v>
+        <v>522.9729</v>
       </c>
       <c r="G102" t="n">
-        <v>633.0833333333334</v>
+        <v>633.05</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C103" t="n">
         <v>629</v>
       </c>
       <c r="D103" t="n">
+        <v>630</v>
+      </c>
+      <c r="E103" t="n">
         <v>629</v>
       </c>
-      <c r="E103" t="n">
-        <v>628</v>
-      </c>
       <c r="F103" t="n">
-        <v>492.2004</v>
+        <v>639.7996000000001</v>
       </c>
       <c r="G103" t="n">
-        <v>633.1166666666667</v>
+        <v>633.0833333333334</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C104" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D104" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E104" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F104" t="n">
-        <v>148.2858</v>
+        <v>492.2004</v>
       </c>
       <c r="G104" t="n">
         <v>633.1166666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>627</v>
       </c>
       <c r="F105" t="n">
-        <v>30</v>
+        <v>148.2858</v>
       </c>
       <c r="G105" t="n">
         <v>633.1166666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C106" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D106" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E106" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F106" t="n">
-        <v>461</v>
+        <v>30</v>
       </c>
       <c r="G106" t="n">
-        <v>633.1666666666666</v>
+        <v>633.1166666666667</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C107" t="n">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="D107" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="E107" t="n">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="F107" t="n">
-        <v>7874.3461</v>
+        <v>461</v>
       </c>
       <c r="G107" t="n">
-        <v>633.0666666666667</v>
+        <v>633.1666666666666</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C108" t="n">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D108" t="n">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E108" t="n">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F108" t="n">
-        <v>425</v>
+        <v>7874.3461</v>
       </c>
       <c r="G108" t="n">
-        <v>633.1166666666667</v>
+        <v>633.0666666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,7 +3516,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C109" t="n">
         <v>629</v>
@@ -3199,15 +3525,18 @@
         <v>629</v>
       </c>
       <c r="E109" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F109" t="n">
-        <v>57</v>
+        <v>425</v>
       </c>
       <c r="G109" t="n">
-        <v>633.15</v>
+        <v>633.1166666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>629</v>
       </c>
       <c r="F110" t="n">
-        <v>625</v>
+        <v>57</v>
       </c>
       <c r="G110" t="n">
-        <v>633.1333333333333</v>
+        <v>633.15</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>629</v>
       </c>
       <c r="F111" t="n">
-        <v>1325</v>
+        <v>625</v>
       </c>
       <c r="G111" t="n">
-        <v>633.0166666666667</v>
+        <v>633.1333333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>629</v>
       </c>
       <c r="F112" t="n">
-        <v>488</v>
+        <v>1325</v>
       </c>
       <c r="G112" t="n">
-        <v>632.9166666666666</v>
+        <v>633.0166666666667</v>
       </c>
       <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C113" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D113" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="E113" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="F113" t="n">
-        <v>815</v>
+        <v>488</v>
       </c>
       <c r="G113" t="n">
-        <v>632.7833333333333</v>
+        <v>632.9166666666666</v>
       </c>
       <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C114" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D114" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E114" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F114" t="n">
-        <v>1093</v>
+        <v>815</v>
       </c>
       <c r="G114" t="n">
-        <v>632.6833333333333</v>
+        <v>632.7833333333333</v>
       </c>
       <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3355,15 +3699,18 @@
         <v>629</v>
       </c>
       <c r="E115" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>1093</v>
       </c>
       <c r="G115" t="n">
-        <v>632.6666666666666</v>
+        <v>632.6833333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>629</v>
       </c>
       <c r="F116" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G116" t="n">
-        <v>632.65</v>
+        <v>632.6666666666666</v>
       </c>
       <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>629</v>
       </c>
       <c r="F117" t="n">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="G117" t="n">
-        <v>632.6166666666667</v>
+        <v>632.65</v>
       </c>
       <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>629</v>
       </c>
       <c r="F118" t="n">
-        <v>850</v>
+        <v>277</v>
       </c>
       <c r="G118" t="n">
-        <v>632.6</v>
+        <v>632.6166666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>629</v>
       </c>
       <c r="C119" t="n">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D119" t="n">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E119" t="n">
         <v>629</v>
       </c>
       <c r="F119" t="n">
-        <v>1199.0373</v>
+        <v>850</v>
       </c>
       <c r="G119" t="n">
-        <v>632.6166666666667</v>
+        <v>632.6</v>
       </c>
       <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,7 +3835,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C120" t="n">
         <v>634</v>
@@ -3485,15 +3844,18 @@
         <v>634</v>
       </c>
       <c r="E120" t="n">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F120" t="n">
-        <v>300</v>
+        <v>1199.0373</v>
       </c>
       <c r="G120" t="n">
-        <v>632.65</v>
+        <v>632.6166666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C121" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D121" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E121" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F121" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="G121" t="n">
-        <v>632.7166666666667</v>
+        <v>632.65</v>
       </c>
       <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3531,21 +3896,24 @@
         <v>636</v>
       </c>
       <c r="C122" t="n">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="D122" t="n">
         <v>636</v>
       </c>
       <c r="E122" t="n">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="F122" t="n">
-        <v>1160.0646</v>
+        <v>175</v>
       </c>
       <c r="G122" t="n">
-        <v>632.5833333333334</v>
+        <v>632.7166666666667</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="C123" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D123" t="n">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="E123" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="F123" t="n">
-        <v>3542.0989</v>
+        <v>1160.0646</v>
       </c>
       <c r="G123" t="n">
-        <v>632.4666666666667</v>
+        <v>632.5833333333334</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C124" t="n">
         <v>627</v>
       </c>
       <c r="D124" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E124" t="n">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F124" t="n">
-        <v>772</v>
+        <v>3542.0989</v>
       </c>
       <c r="G124" t="n">
-        <v>632.45</v>
+        <v>632.4666666666667</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C125" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D125" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E125" t="n">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F125" t="n">
-        <v>125</v>
+        <v>772</v>
       </c>
       <c r="G125" t="n">
-        <v>632.3333333333334</v>
+        <v>632.45</v>
       </c>
       <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>628</v>
       </c>
       <c r="F126" t="n">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="G126" t="n">
-        <v>632.25</v>
+        <v>632.3333333333334</v>
       </c>
       <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>628</v>
       </c>
       <c r="C127" t="n">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D127" t="n">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E127" t="n">
         <v>628</v>
       </c>
       <c r="F127" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G127" t="n">
-        <v>632.2333333333333</v>
+        <v>632.25</v>
       </c>
       <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,21 +4070,24 @@
         <v>628</v>
       </c>
       <c r="C128" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D128" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E128" t="n">
         <v>628</v>
       </c>
       <c r="F128" t="n">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G128" t="n">
-        <v>632.2166666666667</v>
+        <v>632.2333333333333</v>
       </c>
       <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C129" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D129" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E129" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F129" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="G129" t="n">
-        <v>632.1666666666666</v>
+        <v>632.2166666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C130" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D130" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E130" t="n">
         <v>627</v>
       </c>
       <c r="F130" t="n">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="G130" t="n">
-        <v>632.0333333333333</v>
+        <v>632.1666666666666</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>627</v>
       </c>
       <c r="F131" t="n">
-        <v>2639</v>
+        <v>117</v>
       </c>
       <c r="G131" t="n">
-        <v>631.9</v>
+        <v>632.0333333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C132" t="n">
         <v>627</v>
       </c>
       <c r="D132" t="n">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E132" t="n">
         <v>627</v>
       </c>
       <c r="F132" t="n">
-        <v>500</v>
+        <v>2639</v>
       </c>
       <c r="G132" t="n">
-        <v>631.7666666666667</v>
+        <v>631.9</v>
       </c>
       <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>627</v>
       </c>
       <c r="F133" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="G133" t="n">
-        <v>631.6333333333333</v>
+        <v>631.7666666666667</v>
       </c>
       <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3852,12 +4253,15 @@
         <v>627</v>
       </c>
       <c r="F134" t="n">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="G134" t="n">
-        <v>631.5</v>
+        <v>631.6333333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3878,12 +4282,15 @@
         <v>627</v>
       </c>
       <c r="F135" t="n">
-        <v>750</v>
+        <v>425</v>
       </c>
       <c r="G135" t="n">
-        <v>631.3666666666667</v>
+        <v>631.5</v>
       </c>
       <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3904,12 +4311,15 @@
         <v>627</v>
       </c>
       <c r="F136" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="G136" t="n">
-        <v>631.2333333333333</v>
+        <v>631.3666666666667</v>
       </c>
       <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C137" t="n">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D137" t="n">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E137" t="n">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F137" t="n">
+        <v>250</v>
+      </c>
+      <c r="G137" t="n">
+        <v>631.2333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>1</v>
       </c>
-      <c r="G137" t="n">
-        <v>631.2</v>
-      </c>
-      <c r="H137" t="n">
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>633</v>
       </c>
       <c r="F138" t="n">
-        <v>11.7305</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>631.1666666666666</v>
+        <v>631.2</v>
       </c>
       <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>633</v>
       </c>
       <c r="F139" t="n">
-        <v>2727.9999</v>
+        <v>11.7305</v>
       </c>
       <c r="G139" t="n">
-        <v>631.1333333333333</v>
+        <v>631.1666666666666</v>
       </c>
       <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,12 +4427,15 @@
         <v>633</v>
       </c>
       <c r="F140" t="n">
-        <v>50</v>
+        <v>2727.9999</v>
       </c>
       <c r="G140" t="n">
-        <v>631.1</v>
+        <v>631.1333333333333</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4025,21 +4447,24 @@
         <v>633</v>
       </c>
       <c r="C141" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D141" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E141" t="n">
         <v>633</v>
       </c>
       <c r="F141" t="n">
-        <v>3334.4141</v>
+        <v>50</v>
       </c>
       <c r="G141" t="n">
-        <v>631.0666666666667</v>
+        <v>631.1</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C142" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D142" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E142" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F142" t="n">
-        <v>617.9999</v>
+        <v>3334.4141</v>
       </c>
       <c r="G142" t="n">
         <v>631.0666666666667</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>636</v>
       </c>
       <c r="F143" t="n">
-        <v>315.7491</v>
+        <v>617.9999</v>
       </c>
       <c r="G143" t="n">
-        <v>631.0833333333334</v>
+        <v>631.0666666666667</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C144" t="n">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D144" t="n">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E144" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F144" t="n">
-        <v>2970</v>
+        <v>315.7491</v>
       </c>
       <c r="G144" t="n">
-        <v>631.15</v>
+        <v>631.0833333333334</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>637</v>
+      </c>
+      <c r="C145" t="n">
         <v>639</v>
       </c>
-      <c r="C145" t="n">
-        <v>640</v>
-      </c>
       <c r="D145" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E145" t="n">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F145" t="n">
-        <v>1716.4854</v>
+        <v>2970</v>
       </c>
       <c r="G145" t="n">
-        <v>631.2333333333333</v>
+        <v>631.15</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,7 +4589,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C146" t="n">
         <v>640</v>
@@ -4161,15 +4598,18 @@
         <v>640</v>
       </c>
       <c r="E146" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F146" t="n">
-        <v>400</v>
+        <v>1716.4854</v>
       </c>
       <c r="G146" t="n">
-        <v>631.2833333333333</v>
+        <v>631.2333333333333</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>640</v>
       </c>
       <c r="F147" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="G147" t="n">
-        <v>631.5</v>
+        <v>631.2833333333333</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>640</v>
       </c>
       <c r="F148" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="G148" t="n">
-        <v>631.5666666666667</v>
+        <v>631.5</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>640</v>
       </c>
       <c r="F149" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="G149" t="n">
-        <v>631.6333333333333</v>
+        <v>631.5666666666667</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4259,21 +4708,24 @@
         <v>640</v>
       </c>
       <c r="C150" t="n">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D150" t="n">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E150" t="n">
         <v>640</v>
       </c>
       <c r="F150" t="n">
-        <v>5416.3279</v>
+        <v>650</v>
       </c>
       <c r="G150" t="n">
-        <v>631.75</v>
+        <v>631.6333333333333</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,7 +4734,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C151" t="n">
         <v>642</v>
@@ -4291,15 +4743,18 @@
         <v>642</v>
       </c>
       <c r="E151" t="n">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F151" t="n">
-        <v>8811.0648</v>
+        <v>5416.3279</v>
       </c>
       <c r="G151" t="n">
-        <v>631.85</v>
+        <v>631.75</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,12 +4775,15 @@
         <v>642</v>
       </c>
       <c r="F152" t="n">
-        <v>1115.9681</v>
+        <v>8811.0648</v>
       </c>
       <c r="G152" t="n">
-        <v>631.95</v>
+        <v>631.85</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4337,21 +4795,24 @@
         <v>642</v>
       </c>
       <c r="C153" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D153" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E153" t="n">
         <v>642</v>
       </c>
       <c r="F153" t="n">
-        <v>378.8842</v>
+        <v>1115.9681</v>
       </c>
       <c r="G153" t="n">
-        <v>632.1</v>
+        <v>631.95</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,7 +4821,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C154" t="n">
         <v>643</v>
@@ -4369,15 +4830,18 @@
         <v>643</v>
       </c>
       <c r="E154" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F154" t="n">
-        <v>110</v>
+        <v>378.8842</v>
       </c>
       <c r="G154" t="n">
-        <v>632.25</v>
+        <v>632.1</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>643</v>
       </c>
       <c r="F155" t="n">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G155" t="n">
-        <v>632.35</v>
+        <v>632.25</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>643</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G156" t="n">
-        <v>632.5333333333333</v>
+        <v>632.35</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C157" t="n">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D157" t="n">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E157" t="n">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F157" t="n">
-        <v>577</v>
+        <v>2</v>
       </c>
       <c r="G157" t="n">
-        <v>632.6833333333333</v>
+        <v>632.5333333333333</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4467,21 +4940,24 @@
         <v>645</v>
       </c>
       <c r="C158" t="n">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D158" t="n">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E158" t="n">
         <v>645</v>
       </c>
       <c r="F158" t="n">
-        <v>1378.3217</v>
+        <v>577</v>
       </c>
       <c r="G158" t="n">
-        <v>632.8833333333333</v>
+        <v>632.6833333333333</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>645</v>
+      </c>
+      <c r="C159" t="n">
         <v>648</v>
       </c>
-      <c r="C159" t="n">
-        <v>649</v>
-      </c>
       <c r="D159" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E159" t="n">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F159" t="n">
-        <v>1730.9303</v>
+        <v>1378.3217</v>
       </c>
       <c r="G159" t="n">
-        <v>633.1166666666667</v>
+        <v>632.8833333333333</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C160" t="n">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="D160" t="n">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="E160" t="n">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F160" t="n">
-        <v>504</v>
+        <v>1730.9303</v>
       </c>
       <c r="G160" t="n">
-        <v>633.5166666666667</v>
+        <v>633.1166666666667</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="C161" t="n">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D161" t="n">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E161" t="n">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="F161" t="n">
-        <v>1630</v>
+        <v>504</v>
       </c>
       <c r="G161" t="n">
-        <v>634.0333333333333</v>
+        <v>633.5166666666667</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C162" t="n">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D162" t="n">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E162" t="n">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F162" t="n">
-        <v>1543.3233</v>
+        <v>1630</v>
       </c>
       <c r="G162" t="n">
-        <v>634.6666666666666</v>
+        <v>634.0333333333333</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="C163" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D163" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E163" t="n">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="F163" t="n">
-        <v>4387.4959</v>
+        <v>1543.3233</v>
       </c>
       <c r="G163" t="n">
-        <v>635.2833333333333</v>
+        <v>634.6666666666666</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="C164" t="n">
         <v>666</v>
       </c>
       <c r="D164" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E164" t="n">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="F164" t="n">
-        <v>576.0238000000001</v>
+        <v>4387.4959</v>
       </c>
       <c r="G164" t="n">
-        <v>635.9333333333333</v>
+        <v>635.2833333333333</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C165" t="n">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D165" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="E165" t="n">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="F165" t="n">
-        <v>2334.7073</v>
+        <v>576.0238000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>636.4666666666667</v>
+        <v>635.9333333333333</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>659</v>
       </c>
       <c r="F166" t="n">
-        <v>234.0165</v>
+        <v>2334.7073</v>
       </c>
       <c r="G166" t="n">
-        <v>636.9666666666667</v>
+        <v>636.4666666666667</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C167" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D167" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="E167" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="F167" t="n">
-        <v>50</v>
+        <v>234.0165</v>
       </c>
       <c r="G167" t="n">
-        <v>637.5166666666667</v>
+        <v>636.9666666666667</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C168" t="n">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D168" t="n">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E168" t="n">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F168" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G168" t="n">
-        <v>638.0166666666667</v>
+        <v>637.5166666666667</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,7 +5256,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C169" t="n">
         <v>659</v>
@@ -4759,15 +5265,18 @@
         <v>659</v>
       </c>
       <c r="E169" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F169" t="n">
-        <v>198.0274</v>
+        <v>100</v>
       </c>
       <c r="G169" t="n">
-        <v>638.5166666666667</v>
+        <v>638.0166666666667</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C170" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D170" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="E170" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="F170" t="n">
-        <v>798.6244</v>
+        <v>198.0274</v>
       </c>
       <c r="G170" t="n">
-        <v>638.9166666666666</v>
+        <v>638.5166666666667</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C171" t="n">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D171" t="n">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E171" t="n">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F171" t="n">
-        <v>570</v>
+        <v>798.6244</v>
       </c>
       <c r="G171" t="n">
-        <v>639.3666666666667</v>
+        <v>638.9166666666666</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C172" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D172" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E172" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F172" t="n">
-        <v>6.5059</v>
+        <v>570</v>
       </c>
       <c r="G172" t="n">
-        <v>639.7666666666667</v>
+        <v>639.3666666666667</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C173" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D173" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E173" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F173" t="n">
-        <v>282.072</v>
+        <v>6.5059</v>
       </c>
       <c r="G173" t="n">
-        <v>640.2333333333333</v>
+        <v>639.7666666666667</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C174" t="n">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="D174" t="n">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="E174" t="n">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="F174" t="n">
-        <v>96.07089999999999</v>
+        <v>282.072</v>
       </c>
       <c r="G174" t="n">
-        <v>640.5333333333333</v>
+        <v>640.2333333333333</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C175" t="n">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="D175" t="n">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E175" t="n">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="F175" t="n">
-        <v>96.071</v>
+        <v>96.07089999999999</v>
       </c>
       <c r="G175" t="n">
-        <v>640.95</v>
+        <v>640.5333333333333</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C176" t="n">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D176" t="n">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E176" t="n">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="F176" t="n">
-        <v>714.9651</v>
+        <v>96.071</v>
       </c>
       <c r="G176" t="n">
-        <v>641.2666666666667</v>
+        <v>640.95</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>650</v>
+      </c>
+      <c r="C177" t="n">
         <v>648</v>
       </c>
-      <c r="C177" t="n">
-        <v>654</v>
-      </c>
       <c r="D177" t="n">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E177" t="n">
         <v>648</v>
       </c>
       <c r="F177" t="n">
-        <v>215.6807</v>
+        <v>714.9651</v>
       </c>
       <c r="G177" t="n">
-        <v>641.6833333333333</v>
+        <v>641.2666666666667</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,7 +5517,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C178" t="n">
         <v>654</v>
@@ -4993,15 +5526,18 @@
         <v>654</v>
       </c>
       <c r="E178" t="n">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F178" t="n">
-        <v>294.4416</v>
+        <v>215.6807</v>
       </c>
       <c r="G178" t="n">
-        <v>642.1</v>
+        <v>641.6833333333333</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C179" t="n">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D179" t="n">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E179" t="n">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F179" t="n">
-        <v>338.8074</v>
+        <v>294.4416</v>
       </c>
       <c r="G179" t="n">
-        <v>642.3833333333333</v>
+        <v>642.1</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5048,12 +5587,15 @@
         <v>651</v>
       </c>
       <c r="F180" t="n">
-        <v>176.1578</v>
+        <v>338.8074</v>
       </c>
       <c r="G180" t="n">
-        <v>642.6666666666666</v>
+        <v>642.3833333333333</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C181" t="n">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="D181" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="E181" t="n">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="F181" t="n">
-        <v>1716.4854</v>
+        <v>176.1578</v>
       </c>
       <c r="G181" t="n">
-        <v>642.7833333333333</v>
+        <v>642.6666666666666</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C182" t="n">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="D182" t="n">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E182" t="n">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F182" t="n">
-        <v>1252.1572</v>
+        <v>1716.4854</v>
       </c>
       <c r="G182" t="n">
-        <v>643.25</v>
+        <v>642.7833333333333</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C183" t="n">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D183" t="n">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E183" t="n">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F183" t="n">
-        <v>1786.0409</v>
+        <v>1252.1572</v>
       </c>
       <c r="G183" t="n">
-        <v>643.7666666666667</v>
+        <v>643.25</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,7 +5691,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C184" t="n">
         <v>658</v>
@@ -5149,15 +5700,18 @@
         <v>658</v>
       </c>
       <c r="E184" t="n">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F184" t="n">
-        <v>390</v>
+        <v>1786.0409</v>
       </c>
       <c r="G184" t="n">
-        <v>644.2833333333333</v>
+        <v>643.7666666666667</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5178,12 +5732,15 @@
         <v>658</v>
       </c>
       <c r="F185" t="n">
-        <v>563</v>
+        <v>390</v>
       </c>
       <c r="G185" t="n">
-        <v>644.7833333333333</v>
+        <v>644.2833333333333</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5195,21 +5752,24 @@
         <v>658</v>
       </c>
       <c r="C186" t="n">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="D186" t="n">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="E186" t="n">
         <v>658</v>
       </c>
       <c r="F186" t="n">
-        <v>6665.28</v>
+        <v>563</v>
       </c>
       <c r="G186" t="n">
-        <v>645.4833333333333</v>
+        <v>644.7833333333333</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,7 +5778,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C187" t="n">
         <v>670</v>
@@ -5227,15 +5787,18 @@
         <v>670</v>
       </c>
       <c r="E187" t="n">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="F187" t="n">
-        <v>494.2743</v>
+        <v>6665.28</v>
       </c>
       <c r="G187" t="n">
-        <v>646.0833333333334</v>
+        <v>645.4833333333333</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5256,12 +5819,15 @@
         <v>670</v>
       </c>
       <c r="F188" t="n">
-        <v>8.6409</v>
+        <v>494.2743</v>
       </c>
       <c r="G188" t="n">
-        <v>646.7</v>
+        <v>646.0833333333334</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5282,12 +5848,15 @@
         <v>670</v>
       </c>
       <c r="F189" t="n">
-        <v>30.6908</v>
+        <v>8.6409</v>
       </c>
       <c r="G189" t="n">
-        <v>647.35</v>
+        <v>646.7</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5308,12 +5877,15 @@
         <v>670</v>
       </c>
       <c r="F190" t="n">
-        <v>131.2653</v>
+        <v>30.6908</v>
       </c>
       <c r="G190" t="n">
-        <v>648.0666666666667</v>
+        <v>647.35</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C191" t="n">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D191" t="n">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E191" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="F191" t="n">
-        <v>808.7175</v>
+        <v>131.2653</v>
       </c>
       <c r="G191" t="n">
-        <v>648.7333333333333</v>
+        <v>648.0666666666667</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5351,21 +5926,24 @@
         <v>664</v>
       </c>
       <c r="C192" t="n">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D192" t="n">
+        <v>667</v>
+      </c>
+      <c r="E192" t="n">
         <v>664</v>
       </c>
-      <c r="E192" t="n">
-        <v>663</v>
-      </c>
       <c r="F192" t="n">
-        <v>138.0141</v>
+        <v>808.7175</v>
       </c>
       <c r="G192" t="n">
-        <v>649.3333333333334</v>
+        <v>648.7333333333333</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>664</v>
+      </c>
+      <c r="C193" t="n">
         <v>663</v>
       </c>
-      <c r="C193" t="n">
-        <v>658</v>
-      </c>
       <c r="D193" t="n">
+        <v>664</v>
+      </c>
+      <c r="E193" t="n">
         <v>663</v>
       </c>
-      <c r="E193" t="n">
-        <v>658</v>
-      </c>
       <c r="F193" t="n">
-        <v>1542.8185</v>
+        <v>138.0141</v>
       </c>
       <c r="G193" t="n">
-        <v>649.85</v>
+        <v>649.3333333333334</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C194" t="n">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D194" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E194" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F194" t="n">
-        <v>1000</v>
+        <v>1542.8185</v>
       </c>
       <c r="G194" t="n">
-        <v>650.4333333333333</v>
+        <v>649.85</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>659</v>
+      </c>
+      <c r="C195" t="n">
         <v>662</v>
       </c>
-      <c r="C195" t="n">
-        <v>664</v>
-      </c>
       <c r="D195" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E195" t="n">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F195" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G195" t="n">
-        <v>651.05</v>
+        <v>650.4333333333333</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,7 +6039,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C196" t="n">
         <v>664</v>
@@ -5461,15 +6048,18 @@
         <v>664</v>
       </c>
       <c r="E196" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F196" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="G196" t="n">
-        <v>651.6666666666666</v>
+        <v>651.05</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C197" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D197" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E197" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F197" t="n">
-        <v>547.1336</v>
+        <v>950</v>
       </c>
       <c r="G197" t="n">
-        <v>652.15</v>
+        <v>651.6666666666666</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5516,12 +6109,15 @@
         <v>662</v>
       </c>
       <c r="F198" t="n">
-        <v>452.8664</v>
+        <v>547.1336</v>
       </c>
       <c r="G198" t="n">
-        <v>652.6333333333333</v>
+        <v>652.15</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C199" t="n">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D199" t="n">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E199" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F199" t="n">
-        <v>3362.489</v>
+        <v>452.8664</v>
       </c>
       <c r="G199" t="n">
-        <v>653.2166666666667</v>
+        <v>652.6333333333333</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C200" t="n">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D200" t="n">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E200" t="n">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F200" t="n">
-        <v>6.657</v>
+        <v>3362.489</v>
       </c>
       <c r="G200" t="n">
-        <v>653.85</v>
+        <v>653.2166666666667</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +6196,15 @@
         <v>671</v>
       </c>
       <c r="F201" t="n">
-        <v>389.943</v>
+        <v>6.657</v>
       </c>
       <c r="G201" t="n">
-        <v>654.45</v>
+        <v>653.85</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C202" t="n">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D202" t="n">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E202" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F202" t="n">
-        <v>846.8163</v>
+        <v>389.943</v>
       </c>
       <c r="G202" t="n">
-        <v>655.0666666666667</v>
+        <v>654.45</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,7 +6242,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C203" t="n">
         <v>673</v>
@@ -5643,15 +6251,18 @@
         <v>673</v>
       </c>
       <c r="E203" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F203" t="n">
-        <v>589.8575</v>
+        <v>846.8163</v>
       </c>
       <c r="G203" t="n">
-        <v>655.6833333333333</v>
+        <v>655.0666666666667</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5663,21 +6274,24 @@
         <v>673</v>
       </c>
       <c r="C204" t="n">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="D204" t="n">
         <v>673</v>
       </c>
       <c r="E204" t="n">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="F204" t="n">
-        <v>1920</v>
+        <v>589.8575</v>
       </c>
       <c r="G204" t="n">
-        <v>656.1666666666666</v>
+        <v>655.6833333333333</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C205" t="n">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D205" t="n">
         <v>673</v>
       </c>
       <c r="E205" t="n">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F205" t="n">
-        <v>728</v>
+        <v>1920</v>
       </c>
       <c r="G205" t="n">
-        <v>656.7166666666667</v>
+        <v>656.1666666666666</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>672</v>
+      </c>
+      <c r="C206" t="n">
         <v>673</v>
       </c>
-      <c r="C206" t="n">
-        <v>684</v>
-      </c>
       <c r="D206" t="n">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="E206" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F206" t="n">
-        <v>7122.85335784</v>
+        <v>728</v>
       </c>
       <c r="G206" t="n">
-        <v>657.45</v>
+        <v>656.7166666666667</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,7 +6358,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="C207" t="n">
         <v>684</v>
@@ -5747,15 +6367,18 @@
         <v>684</v>
       </c>
       <c r="E207" t="n">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="F207" t="n">
-        <v>100</v>
+        <v>7122.85335784</v>
       </c>
       <c r="G207" t="n">
-        <v>658.1833333333333</v>
+        <v>657.45</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5767,21 +6390,24 @@
         <v>684</v>
       </c>
       <c r="C208" t="n">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D208" t="n">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E208" t="n">
         <v>684</v>
       </c>
       <c r="F208" t="n">
-        <v>23574.0854</v>
+        <v>100</v>
       </c>
       <c r="G208" t="n">
-        <v>658.9333333333333</v>
+        <v>658.1833333333333</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
+        <v>684</v>
+      </c>
+      <c r="C209" t="n">
         <v>685</v>
       </c>
-      <c r="C209" t="n">
-        <v>687</v>
-      </c>
       <c r="D209" t="n">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="E209" t="n">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F209" t="n">
-        <v>20883.25808656</v>
+        <v>23574.0854</v>
       </c>
       <c r="G209" t="n">
-        <v>659.7166666666667</v>
+        <v>658.9333333333333</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,25 +6445,28 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C210" t="n">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D210" t="n">
         <v>700</v>
       </c>
       <c r="E210" t="n">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="F210" t="n">
-        <v>7235.93912612</v>
+        <v>20883.25808656</v>
       </c>
       <c r="G210" t="n">
-        <v>660.5333333333333</v>
+        <v>659.7166666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -5842,25 +6474,28 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
+        <v>688</v>
+      </c>
+      <c r="C211" t="n">
         <v>691</v>
       </c>
-      <c r="C211" t="n">
-        <v>696</v>
-      </c>
       <c r="D211" t="n">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="E211" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F211" t="n">
-        <v>953.91500172</v>
+        <v>7235.93912612</v>
       </c>
       <c r="G211" t="n">
-        <v>661.4333333333333</v>
+        <v>660.5333333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>691</v>
+      </c>
+      <c r="C212" t="n">
         <v>696</v>
       </c>
-      <c r="C212" t="n">
-        <v>698</v>
-      </c>
       <c r="D212" t="n">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E212" t="n">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F212" t="n">
-        <v>1126.0502</v>
+        <v>953.91500172</v>
       </c>
       <c r="G212" t="n">
-        <v>662.3666666666667</v>
+        <v>661.4333333333333</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,7 +6532,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C213" t="n">
         <v>698</v>
@@ -5903,15 +6541,18 @@
         <v>698</v>
       </c>
       <c r="E213" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F213" t="n">
-        <v>1628.7317</v>
+        <v>1126.0502</v>
       </c>
       <c r="G213" t="n">
-        <v>663.2833333333333</v>
+        <v>662.3666666666667</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5923,21 +6564,24 @@
         <v>698</v>
       </c>
       <c r="C214" t="n">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="D214" t="n">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E214" t="n">
         <v>690</v>
       </c>
       <c r="F214" t="n">
-        <v>3369.4269</v>
+        <v>1628.7317</v>
       </c>
       <c r="G214" t="n">
-        <v>664.0666666666667</v>
+        <v>663.2833333333333</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5949,21 +6593,24 @@
         <v>698</v>
       </c>
       <c r="C215" t="n">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D215" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E215" t="n">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="F215" t="n">
-        <v>1.4003</v>
+        <v>3369.4269</v>
       </c>
       <c r="G215" t="n">
-        <v>664.9833333333333</v>
+        <v>664.0666666666667</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C216" t="n">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="D216" t="n">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E216" t="n">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="F216" t="n">
-        <v>5072.7539</v>
+        <v>1.4003</v>
       </c>
       <c r="G216" t="n">
-        <v>665.7666666666667</v>
+        <v>664.9833333333333</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
+        <v>695</v>
+      </c>
+      <c r="C217" t="n">
         <v>690</v>
       </c>
-      <c r="C217" t="n">
-        <v>694</v>
-      </c>
       <c r="D217" t="n">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E217" t="n">
         <v>690</v>
       </c>
       <c r="F217" t="n">
-        <v>7884.275</v>
+        <v>5072.7539</v>
       </c>
       <c r="G217" t="n">
-        <v>666.5833333333334</v>
+        <v>665.7666666666667</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C218" t="n">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D218" t="n">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E218" t="n">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="F218" t="n">
-        <v>274.2432</v>
+        <v>7884.275</v>
       </c>
       <c r="G218" t="n">
-        <v>667.3833333333333</v>
+        <v>666.5833333333334</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6053,21 +6709,24 @@
         <v>696</v>
       </c>
       <c r="C219" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D219" t="n">
         <v>696</v>
       </c>
       <c r="E219" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F219" t="n">
-        <v>2218.5356</v>
+        <v>274.2432</v>
       </c>
       <c r="G219" t="n">
-        <v>668.15</v>
+        <v>667.3833333333333</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C220" t="n">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D220" t="n">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="E220" t="n">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F220" t="n">
-        <v>784.2544</v>
+        <v>2218.5356</v>
       </c>
       <c r="G220" t="n">
-        <v>668.7</v>
+        <v>668.15</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,7 +6764,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C221" t="n">
         <v>693</v>
@@ -6111,15 +6773,18 @@
         <v>693</v>
       </c>
       <c r="E221" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F221" t="n">
-        <v>42.4687</v>
+        <v>784.2544</v>
       </c>
       <c r="G221" t="n">
-        <v>669.2166666666667</v>
+        <v>668.7</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,544 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
+        <v>692</v>
+      </c>
+      <c r="C222" t="n">
         <v>693</v>
       </c>
-      <c r="C222" t="n">
-        <v>694</v>
-      </c>
       <c r="D222" t="n">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E222" t="n">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F222" t="n">
-        <v>2292.073</v>
+        <v>42.4687</v>
       </c>
       <c r="G222" t="n">
-        <v>669.6666666666666</v>
+        <v>669.2166666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>695</v>
-      </c>
-      <c r="C223" t="n">
-        <v>695</v>
-      </c>
-      <c r="D223" t="n">
-        <v>695</v>
-      </c>
-      <c r="E223" t="n">
-        <v>695</v>
-      </c>
-      <c r="F223" t="n">
-        <v>2437.1266</v>
-      </c>
-      <c r="G223" t="n">
-        <v>670.15</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>695</v>
-      </c>
-      <c r="C224" t="n">
-        <v>695</v>
-      </c>
-      <c r="D224" t="n">
-        <v>695</v>
-      </c>
-      <c r="E224" t="n">
-        <v>695</v>
-      </c>
-      <c r="F224" t="n">
-        <v>715.4580999999999</v>
-      </c>
-      <c r="G224" t="n">
-        <v>670.6333333333333</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>695</v>
-      </c>
-      <c r="C225" t="n">
-        <v>700</v>
-      </c>
-      <c r="D225" t="n">
-        <v>700</v>
-      </c>
-      <c r="E225" t="n">
-        <v>695</v>
-      </c>
-      <c r="F225" t="n">
-        <v>4402.5153</v>
-      </c>
-      <c r="G225" t="n">
-        <v>671.3166666666667</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>699</v>
-      </c>
-      <c r="C226" t="n">
-        <v>697</v>
-      </c>
-      <c r="D226" t="n">
-        <v>700</v>
-      </c>
-      <c r="E226" t="n">
-        <v>697</v>
-      </c>
-      <c r="F226" t="n">
-        <v>665.7117</v>
-      </c>
-      <c r="G226" t="n">
-        <v>671.95</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>701</v>
-      </c>
-      <c r="C227" t="n">
-        <v>696</v>
-      </c>
-      <c r="D227" t="n">
-        <v>701</v>
-      </c>
-      <c r="E227" t="n">
-        <v>696</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1101.5922</v>
-      </c>
-      <c r="G227" t="n">
-        <v>672.6666666666666</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>700</v>
-      </c>
-      <c r="C228" t="n">
-        <v>702</v>
-      </c>
-      <c r="D228" t="n">
-        <v>702</v>
-      </c>
-      <c r="E228" t="n">
-        <v>700</v>
-      </c>
-      <c r="F228" t="n">
-        <v>400.5333</v>
-      </c>
-      <c r="G228" t="n">
-        <v>673.3833333333333</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>702</v>
-      </c>
-      <c r="C229" t="n">
-        <v>703</v>
-      </c>
-      <c r="D229" t="n">
-        <v>703</v>
-      </c>
-      <c r="E229" t="n">
-        <v>697</v>
-      </c>
-      <c r="F229" t="n">
-        <v>331.6416</v>
-      </c>
-      <c r="G229" t="n">
-        <v>674.1166666666667</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>697</v>
-      </c>
-      <c r="C230" t="n">
-        <v>697</v>
-      </c>
-      <c r="D230" t="n">
-        <v>697</v>
-      </c>
-      <c r="E230" t="n">
-        <v>697</v>
-      </c>
-      <c r="F230" t="n">
-        <v>1414</v>
-      </c>
-      <c r="G230" t="n">
-        <v>674.85</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>697</v>
-      </c>
-      <c r="C231" t="n">
-        <v>696</v>
-      </c>
-      <c r="D231" t="n">
-        <v>697</v>
-      </c>
-      <c r="E231" t="n">
-        <v>696</v>
-      </c>
-      <c r="F231" t="n">
-        <v>3217.7593</v>
-      </c>
-      <c r="G231" t="n">
-        <v>675.5166666666667</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>695</v>
-      </c>
-      <c r="C232" t="n">
-        <v>702</v>
-      </c>
-      <c r="D232" t="n">
-        <v>702</v>
-      </c>
-      <c r="E232" t="n">
-        <v>679</v>
-      </c>
-      <c r="F232" t="n">
-        <v>2463.5394</v>
-      </c>
-      <c r="G232" t="n">
-        <v>676.3333333333334</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>698</v>
-      </c>
-      <c r="C233" t="n">
-        <v>698</v>
-      </c>
-      <c r="D233" t="n">
-        <v>698</v>
-      </c>
-      <c r="E233" t="n">
-        <v>698</v>
-      </c>
-      <c r="F233" t="n">
-        <v>515.2069</v>
-      </c>
-      <c r="G233" t="n">
-        <v>677.1</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>699</v>
-      </c>
-      <c r="C234" t="n">
-        <v>699</v>
-      </c>
-      <c r="D234" t="n">
-        <v>699</v>
-      </c>
-      <c r="E234" t="n">
-        <v>699</v>
-      </c>
-      <c r="F234" t="n">
-        <v>575.0244</v>
-      </c>
-      <c r="G234" t="n">
-        <v>677.9666666666667</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>699</v>
-      </c>
-      <c r="C235" t="n">
-        <v>699</v>
-      </c>
-      <c r="D235" t="n">
-        <v>699</v>
-      </c>
-      <c r="E235" t="n">
-        <v>699</v>
-      </c>
-      <c r="F235" t="n">
-        <v>2857.4801</v>
-      </c>
-      <c r="G235" t="n">
-        <v>678.7166666666667</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>700</v>
-      </c>
-      <c r="C236" t="n">
-        <v>702</v>
-      </c>
-      <c r="D236" t="n">
-        <v>702</v>
-      </c>
-      <c r="E236" t="n">
-        <v>691</v>
-      </c>
-      <c r="F236" t="n">
-        <v>5615.2105</v>
-      </c>
-      <c r="G236" t="n">
-        <v>679.6166666666667</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>703</v>
-      </c>
-      <c r="C237" t="n">
-        <v>704</v>
-      </c>
-      <c r="D237" t="n">
-        <v>705</v>
-      </c>
-      <c r="E237" t="n">
-        <v>703</v>
-      </c>
-      <c r="F237" t="n">
-        <v>5223.0469</v>
-      </c>
-      <c r="G237" t="n">
-        <v>680.45</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>705</v>
-      </c>
-      <c r="C238" t="n">
-        <v>705</v>
-      </c>
-      <c r="D238" t="n">
-        <v>708</v>
-      </c>
-      <c r="E238" t="n">
-        <v>705</v>
-      </c>
-      <c r="F238" t="n">
-        <v>4422.0587</v>
-      </c>
-      <c r="G238" t="n">
-        <v>681.3</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>708</v>
-      </c>
-      <c r="C239" t="n">
-        <v>708</v>
-      </c>
-      <c r="D239" t="n">
-        <v>708</v>
-      </c>
-      <c r="E239" t="n">
-        <v>708</v>
-      </c>
-      <c r="F239" t="n">
-        <v>724.367</v>
-      </c>
-      <c r="G239" t="n">
-        <v>682.25</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>709</v>
-      </c>
-      <c r="C240" t="n">
-        <v>713</v>
-      </c>
-      <c r="D240" t="n">
-        <v>713</v>
-      </c>
-      <c r="E240" t="n">
-        <v>708</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1495.1746</v>
-      </c>
-      <c r="G240" t="n">
-        <v>683.2833333333333</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>713</v>
-      </c>
-      <c r="C241" t="n">
-        <v>717</v>
-      </c>
-      <c r="D241" t="n">
-        <v>717</v>
-      </c>
-      <c r="E241" t="n">
-        <v>713</v>
-      </c>
-      <c r="F241" t="n">
-        <v>4860.479</v>
-      </c>
-      <c r="G241" t="n">
-        <v>684.5166666666667</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>717</v>
-      </c>
-      <c r="C242" t="n">
-        <v>718</v>
-      </c>
-      <c r="D242" t="n">
-        <v>718</v>
-      </c>
-      <c r="E242" t="n">
-        <v>717</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1587.2038</v>
-      </c>
-      <c r="G242" t="n">
-        <v>685.5833333333334</v>
-      </c>
-      <c r="H242" t="n">
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
